--- a/excel/customers.xlsx
+++ b/excel/customers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobcumulus\WebstormProjects\learn-sequelize\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobcumulus\WebstormProjects\cradle\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D322AF50-4B15-4F2D-8FB1-3CE6A7FB000D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7357FC1-76DC-4451-A7D9-C5E984CCCA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10875" yWindow="930" windowWidth="9150" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -46,16 +46,40 @@
   </si>
   <si>
     <t>Mike</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,63 +387,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>